--- a/biology/Zoologie/Araponga_blanc/Araponga_blanc.xlsx
+++ b/biology/Zoologie/Araponga_blanc/Araponga_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Procnias albus
-L'Araponga blanc (Procnias albus), ou oiseau cloche en Guyane[1], est une espèce d'oiseaux de la famille des Cotingidae. Seul le mâle est blanc, la femelle est de couleur olive.
-Selon une étude publiée en 2019, il est l'oiseau produisant les sons les plus forts, avec des enregistrements à 125 dB[2],[3]. Le record précédent pour les animaux terrestres était attribué à l'oiseau de la même famille des cotingidés, le piauhau hurleur .
+L'Araponga blanc (Procnias albus), ou oiseau cloche en Guyane, est une espèce d'oiseaux de la famille des Cotingidae. Seul le mâle est blanc, la femelle est de couleur olive.
+Selon une étude publiée en 2019, il est l'oiseau produisant les sons les plus forts, avec des enregistrements à 125 dB,. Le record précédent pour les animaux terrestres était attribué à l'oiseau de la même famille des cotingidés, le piauhau hurleur .
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le plateau des Guyanes et le nord de l'État de Pará.
 </t>
